--- a/battleworld/Excel/Bullet.xlsx
+++ b/battleworld/Excel/Bullet.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="说明" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="说明" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="188">
   <si>
     <t xml:space="preserve">int</t>
   </si>
@@ -2138,12 +2138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2159,3320 +2163,3429 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="V13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="X40" activeCellId="0" sqref="X40"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="12.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="22.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="35.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="43.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="35.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="28" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="0" width="10.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="0" width="10.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="22.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="43.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="35.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="28" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="1" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="1" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="10.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="T3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AB3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="0" t="s">
+      <c r="AC3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AF3" s="0" t="s">
+      <c r="AF3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AH3" s="0" t="s">
+      <c r="AH3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AI3" s="0" t="s">
+      <c r="AI3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AJ3" s="0" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AK3" s="0" t="s">
+      <c r="AK3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AL3" s="0" t="s">
+      <c r="AL3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AM3" s="0" t="s">
+      <c r="AM3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AN3" s="0" t="s">
+      <c r="AN3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AO3" s="0" t="s">
+      <c r="AO3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AP3" s="0" t="s">
+      <c r="AP3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AQ3" s="0" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR3" s="0" t="s">
+      <c r="AR3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AS3" s="0" t="s">
+      <c r="AS3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="0" t="n">
+      <c r="R5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="0" t="n">
+      <c r="U5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="W5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AF5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AI5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0" t="n">
+      <c r="K6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="0" t="n">
+      <c r="R6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="0" t="n">
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="W6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AF6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AI6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0" t="n">
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="0" t="n">
+      <c r="R7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="0" t="n">
+      <c r="U7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" s="1" t="s">
+      <c r="W7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AD7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AF7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AI7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="0" t="n">
+      <c r="R8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="0" t="n">
+      <c r="U8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="W8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AD8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="0" t="n">
+      <c r="AF8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AI8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <v>130908</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="0" t="n">
+      <c r="R9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="0" t="n">
+      <c r="U9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="n">
         <v>160360</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X9" s="1" t="s">
+      <c r="W9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AD9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1" t="n">
         <v>151550</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AF9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AI9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="n">
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="0" t="n">
+      <c r="R10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="0" t="n">
+      <c r="U10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X10" s="1" t="s">
+      <c r="W10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AD10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AF10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AI10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0" t="n">
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="0" t="n">
+      <c r="R11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="0" t="n">
+      <c r="U11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="W11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AD11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AF11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AI11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="n">
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="0" t="n">
+      <c r="R12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="U12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="W12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AD12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AF12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AI12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="0" t="n">
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="0" t="n">
+      <c r="R13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="0" t="n">
+      <c r="U13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X13" s="1" t="s">
+      <c r="W13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AD13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AF13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AI13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="0" t="n">
+      <c r="R14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="0" t="n">
+      <c r="U14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X14" s="1" t="s">
+      <c r="W14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AD14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AF14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AI14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="n">
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="0" t="n">
+      <c r="R15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="0" t="n">
+      <c r="U15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1" t="n">
         <v>13599</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y15" s="1" t="s">
+      <c r="W15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AD15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AF15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AI15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="0" t="n">
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="1" t="n">
         <v>153046</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="0" t="n">
+      <c r="R16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1" t="s">
+      <c r="U16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AA16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AF16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="1" t="n">
         <v>24936</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AI16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AD17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AD17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AF17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG17" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0" t="n">
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>7000</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="0" t="n">
+      <c r="R18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="U18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AA18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="1" t="s">
+      <c r="AF18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AN18" s="1" t="s">
+      <c r="AN18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AP18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AQ18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="0" t="n">
+      <c r="AQ18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0" t="n">
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="0" t="n">
+      <c r="R19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n">
         <v>24949</v>
       </c>
-      <c r="U19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X19" s="1" t="s">
+      <c r="W19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AD19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AD19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="1" t="s">
+      <c r="AF19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AO19" s="0" t="n">
+      <c r="AO19" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="AR19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="0" t="n">
+      <c r="AR19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="0" t="n">
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1" t="s">
+      <c r="R20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X20" s="1" t="s">
+      <c r="W20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AD20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AF20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AN20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AQ20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="0" t="n">
+      <c r="AQ20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="0" t="n">
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1" t="s">
+      <c r="R21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X21" s="1" t="s">
+      <c r="W21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AD21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AD21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AF21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AN21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AQ21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="0" t="n">
+      <c r="AQ21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="0" t="n">
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="1" t="n">
         <v>13594</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="R22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y22" s="1" t="s">
+      <c r="W22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Y22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="Z22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AD22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AD22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AF22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="0" t="n">
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y23" s="1" t="s">
+      <c r="W23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AD23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AD23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AF23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG23" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="0" t="n">
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y24" s="1" t="s">
+      <c r="W24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AD24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="0" t="n">
+      <c r="AD24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AF24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="0" t="n">
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y25" s="1" t="s">
+      <c r="W25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AD25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AD25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AF25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG25" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="0" t="n">
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y26" s="1" t="s">
+      <c r="W26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AA26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AD26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AD26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AF26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="0" t="n">
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y27" s="1" t="s">
+      <c r="W27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="E28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="0" t="n">
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y28" s="1" t="s">
+      <c r="W28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="0" t="n">
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y29" s="1" t="s">
+      <c r="W29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y29" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="0" t="n">
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X30" s="1" t="s">
+      <c r="W30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AA30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AD30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AD30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="1" t="s">
+      <c r="AF30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AN30" s="1" t="s">
+      <c r="AN30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AQ30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="0" t="n">
+      <c r="AQ30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" s="0" t="n">
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X31" s="1" t="s">
+      <c r="W31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Y31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AA31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AD31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AD31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1" t="n">
         <v>13595</v>
       </c>
-      <c r="AF31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AF31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AN31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AQ31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="0" t="n">
+      <c r="AQ31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
+      <c r="E32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="0" t="n">
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="W32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y32" s="1" t="s">
+      <c r="W32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y32" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AA32" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="0" t="n">
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y33" s="1" t="s">
+      <c r="W33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AA33" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="0" t="n">
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y34" s="1" t="s">
+      <c r="W34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AA34" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="0" t="n">
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X35" s="1" t="s">
+      <c r="W35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AA35" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="0" t="n">
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="0" t="n">
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X36" s="1" t="s">
+      <c r="W36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="0" t="n">
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="P37" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X37" s="1" t="s">
+      <c r="W37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X37" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA37" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="0" t="n">
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="0" t="n">
+      <c r="K38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="P38" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X38" s="1" t="s">
+      <c r="W38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Y38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AA38" s="2" t="s">
         <v>181</v>
       </c>
     </row>
